--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>10.19358155542833</v>
+        <v>27.31730952612978</v>
       </c>
       <c r="R2">
-        <v>91.742233998855</v>
+        <v>245.855785735168</v>
       </c>
       <c r="S2">
-        <v>0.04900151025851382</v>
+        <v>0.1013031596891978</v>
       </c>
       <c r="T2">
-        <v>0.04900151025851383</v>
+        <v>0.1013031596891978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>18.29848898703589</v>
+        <v>40.00206413513956</v>
       </c>
       <c r="R3">
-        <v>164.686400883323</v>
+        <v>360.018577216256</v>
       </c>
       <c r="S3">
-        <v>0.08796256653639575</v>
+        <v>0.1483431407146228</v>
       </c>
       <c r="T3">
-        <v>0.08796256653639579</v>
+        <v>0.1483431407146228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>2.112766395276778</v>
+        <v>5.11403456773689</v>
       </c>
       <c r="R4">
-        <v>19.014897557491</v>
+        <v>46.026311109632</v>
       </c>
       <c r="S4">
-        <v>0.01015626780725237</v>
+        <v>0.01896482008874194</v>
       </c>
       <c r="T4">
-        <v>0.01015626780725237</v>
+        <v>0.01896482008874194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H5">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.03011439408022222</v>
+        <v>0.007525738154666667</v>
       </c>
       <c r="R5">
-        <v>0.271029546722</v>
+        <v>0.067731643392</v>
       </c>
       <c r="S5">
-        <v>0.0001447627394186214</v>
+        <v>2.79083506862946E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001447627394186214</v>
+        <v>2.79083506862946E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
         <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>44.50170718612334</v>
+        <v>54.55324898808978</v>
       </c>
       <c r="R6">
-        <v>400.51536467511</v>
+        <v>490.979240892808</v>
       </c>
       <c r="S6">
-        <v>0.2139239137240189</v>
+        <v>0.2023045676778254</v>
       </c>
       <c r="T6">
-        <v>0.2139239137240189</v>
+        <v>0.2023045676778254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
         <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
-        <v>79.88497413020957</v>
+        <v>79.88497413020956</v>
       </c>
       <c r="R7">
-        <v>718.9647671718861</v>
+        <v>718.964767171886</v>
       </c>
       <c r="S7">
-        <v>0.3840146231290038</v>
+        <v>0.2962444117470373</v>
       </c>
       <c r="T7">
-        <v>0.3840146231290039</v>
+        <v>0.2962444117470373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
         <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>9.223618898229113</v>
+        <v>10.21283596177689</v>
       </c>
       <c r="R8">
-        <v>83.01257008406201</v>
+        <v>91.915523655992</v>
       </c>
       <c r="S8">
-        <v>0.04433880806314931</v>
+        <v>0.03787314967185362</v>
       </c>
       <c r="T8">
-        <v>0.04433880806314931</v>
+        <v>0.03787314967185364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
         <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.1314691936448889</v>
+        <v>0.01502905939466667</v>
       </c>
       <c r="R9">
-        <v>1.183222742804</v>
+        <v>0.135261534552</v>
       </c>
       <c r="S9">
-        <v>0.0006319848432112596</v>
+        <v>5.57335707742393E-05</v>
       </c>
       <c r="T9">
-        <v>0.0006319848432112599</v>
+        <v>5.573357077423931E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H10">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>7.247457543766666</v>
+        <v>16.644617077408</v>
       </c>
       <c r="R10">
-        <v>65.2271178939</v>
+        <v>149.801553696672</v>
       </c>
       <c r="S10">
-        <v>0.03483921360200497</v>
+        <v>0.06172468412913647</v>
       </c>
       <c r="T10">
-        <v>0.03483921360200497</v>
+        <v>0.06172468412913648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H11">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>13.00990445090445</v>
+        <v>24.373521821336</v>
       </c>
       <c r="R11">
-        <v>117.08914005814</v>
+        <v>219.361696392024</v>
       </c>
       <c r="S11">
-        <v>0.06253984067786182</v>
+        <v>0.09038645518487719</v>
       </c>
       <c r="T11">
-        <v>0.06253984067786184</v>
+        <v>0.0903864551848772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H12">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>1.502139818708889</v>
+        <v>3.116015031392</v>
       </c>
       <c r="R12">
-        <v>13.51925836838</v>
+        <v>28.044135282528</v>
       </c>
       <c r="S12">
-        <v>0.007220928123833777</v>
+        <v>0.01155539010959716</v>
       </c>
       <c r="T12">
-        <v>0.007220928123833779</v>
+        <v>0.01155539010959717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H13">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.02141080555111111</v>
+        <v>0.004585481952</v>
       </c>
       <c r="R13">
-        <v>0.19269724996</v>
+        <v>0.041269337568</v>
       </c>
       <c r="S13">
-        <v>0.0001029237665045326</v>
+        <v>1.700474235909141E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001029237665045326</v>
+        <v>1.700474235909141E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H14">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N14">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q14">
-        <v>7.276512366253333</v>
+        <v>3.172615805464889</v>
       </c>
       <c r="R14">
-        <v>65.48861129628</v>
+        <v>28.553542249184</v>
       </c>
       <c r="S14">
-        <v>0.03497888288059935</v>
+        <v>0.011765287692994</v>
       </c>
       <c r="T14">
-        <v>0.03497888288059936</v>
+        <v>0.011765287692994</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H15">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>38.717137</v>
       </c>
       <c r="O15">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P15">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q15">
-        <v>13.06206073634756</v>
+        <v>4.645815533369777</v>
       </c>
       <c r="R15">
-        <v>117.558546627128</v>
+        <v>41.812339800328</v>
       </c>
       <c r="S15">
-        <v>0.06279056087294631</v>
+        <v>0.01722848263711102</v>
       </c>
       <c r="T15">
-        <v>0.06279056087294634</v>
+        <v>0.01722848263711102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H16">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N16">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O16">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P16">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q16">
-        <v>1.508161848575111</v>
+        <v>0.5939408814684445</v>
       </c>
       <c r="R16">
-        <v>13.573456637176</v>
+        <v>5.345467933216</v>
       </c>
       <c r="S16">
-        <v>0.007249876590735446</v>
+        <v>0.002202562734217593</v>
       </c>
       <c r="T16">
-        <v>0.007249876590735447</v>
+        <v>0.002202562734217594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H17">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N17">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O17">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P17">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q17">
-        <v>0.02149664077688889</v>
+        <v>0.0008740346773333333</v>
       </c>
       <c r="R17">
-        <v>0.193469766992</v>
+        <v>0.007866312096</v>
       </c>
       <c r="S17">
-        <v>0.0001033363845498801</v>
+        <v>3.241258968314641E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001033363845498802</v>
+        <v>3.241258968314641E-06</v>
       </c>
     </row>
   </sheetData>
